--- a/Data/Forecasts/IDA1/2023-12-01_exo[].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-01_exo[].xlsx
@@ -454,7 +454,7 @@
         <v>45261</v>
       </c>
       <c r="B2" t="n">
-        <v>116.47607421875</v>
+        <v>116.8660278320312</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45261.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>121.8376235961914</v>
+        <v>119.8711471557617</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45261.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>123.7654876708984</v>
+        <v>118.3105239868164</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45261.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>118.0686721801758</v>
+        <v>112.2388229370117</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45261.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>121.6835174560547</v>
+        <v>114.8602294921875</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45261.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>118.0696029663086</v>
+        <v>111.3124694824219</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45261.125</v>
       </c>
       <c r="B8" t="n">
-        <v>116.7418212890625</v>
+        <v>113.2200775146484</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45261.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>114.5764465332031</v>
+        <v>109.5124816894531</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45261.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>119.1969680786133</v>
+        <v>112.6587677001953</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45261.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>116.3667297363281</v>
+        <v>113.4131698608398</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45261.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>118.4795227050781</v>
+        <v>113.5954818725586</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45261.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>125.0901489257812</v>
+        <v>121.4106369018555</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45261.25</v>
       </c>
       <c r="B14" t="n">
-        <v>121.4752731323242</v>
+        <v>126.5259399414062</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45261.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>130.2944183349609</v>
+        <v>131.0348815917969</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45261.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>152.7655334472656</v>
+        <v>143.4014282226562</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45261.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>171.5780792236328</v>
+        <v>169.0320739746094</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45261.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>166.1478576660156</v>
+        <v>158.4875183105469</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45261.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>175.5904846191406</v>
+        <v>168.3096313476562</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45261.375</v>
       </c>
       <c r="B20" t="n">
-        <v>184.277099609375</v>
+        <v>167.9345855712891</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45261.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>192.0989227294922</v>
+        <v>170.9794006347656</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45261.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>190.8525238037109</v>
+        <v>171.5580596923828</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45261.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>192.4890899658203</v>
+        <v>171.615234375</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45261.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>188.0405426025391</v>
+        <v>170.3724670410156</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45261.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>187.0803070068359</v>
+        <v>169.9477233886719</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45261.5</v>
       </c>
       <c r="B26" t="n">
-        <v>182.4181518554688</v>
+        <v>165.2580108642578</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>185.0798187255859</v>
+        <v>168.7827301025391</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45261.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>180.5082550048828</v>
+        <v>168.6980133056641</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45261.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>176.7750244140625</v>
+        <v>165.6544189453125</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45261.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>174.2975158691406</v>
+        <v>167.6476135253906</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>174.9686737060547</v>
+        <v>167.7669677734375</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45261.625</v>
       </c>
       <c r="B32" t="n">
-        <v>180.7264862060547</v>
+        <v>176.078369140625</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>195.3623809814453</v>
+        <v>190.8202209472656</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>174.0096435546875</v>
+        <v>178.8159332275391</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45261.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>213.9368591308594</v>
+        <v>218.2801513671875</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>225.3517150878906</v>
+        <v>222.4234161376953</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45261.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>222.3458251953125</v>
+        <v>222.9360809326172</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45261.75</v>
       </c>
       <c r="B38" t="n">
-        <v>204.1687164306641</v>
+        <v>205.1527252197266</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45261.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>196.1201934814453</v>
+        <v>194.72900390625</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45261.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>189.2713623046875</v>
+        <v>184.1470642089844</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45261.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>176.6173858642578</v>
+        <v>172.6604919433594</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45261.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>173.5338439941406</v>
+        <v>164.2326354980469</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45261.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>158.1191864013672</v>
+        <v>149.0408630371094</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45261.875</v>
       </c>
       <c r="B44" t="n">
-        <v>148.1374359130859</v>
+        <v>156.6593627929688</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45261.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>130.2493591308594</v>
+        <v>143.1354370117188</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45261.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>148.8249969482422</v>
+        <v>146.0276489257812</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45261.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>139.0207824707031</v>
+        <v>138.4981842041016</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45261.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>139.1993713378906</v>
+        <v>137.1892242431641</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45261.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>138.7838592529297</v>
+        <v>137.0011596679688</v>
       </c>
     </row>
   </sheetData>
